--- a/Parts/Componet List.xlsx
+++ b/Parts/Componet List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/77b7aaadc6b9f2e9/Documents/GitHub/DBF/PCB-Shield-Design/Parts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67CA6F16-8642-40DE-87EA-04BBB26B3169}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="8_{67CA6F16-8642-40DE-87EA-04BBB26B3169}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{81BB9724-E349-4040-903F-EE6FE83EFFD7}"/>
   <bookViews>
-    <workbookView xWindow="3216" yWindow="3480" windowWidth="17280" windowHeight="8964" xr2:uid="{A63A2686-3B4E-457C-A8F5-34C06D046AA0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A63A2686-3B4E-457C-A8F5-34C06D046AA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Componet Name</t>
   </si>
@@ -48,20 +48,157 @@
     <t>Manufacture No.</t>
   </si>
   <si>
-    <t>Price ($)</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RMCF0603JT10K0/1758104</t>
+  </si>
+  <si>
+    <t>RMCF0603JT10K0</t>
+  </si>
+  <si>
+    <t>RES 10K OHM 5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>LM338T/NOPB</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR POS ADJ 5A TO220-3</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/LM338T-NOPB/212669</t>
+  </si>
+  <si>
+    <t>CL10B104KB8NNNC</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL10B104KB8NNNC/3886658</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1051V</t>
+  </si>
+  <si>
+    <t>RES SMD 1.05K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERJ-3EKF1051V/196035</t>
+  </si>
+  <si>
+    <t>Find Resistors: https://www.digikey.com/en/products/filter/chip-resistor-surface-mount/52?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IB7KAbXABYAGANjJHwA4Bme%2BukeqmAdja-oFZaDCgN78YQkFRaSqYMozZVG-HvjJcqATlVsyVLlzKT%2B0-nq78tbfmArmAuvgAOAFyggAyq4BOASwA7AHMQAF98RWgQJEg0LDxCEnAwRgh8LU02ejJWBjAqXlSlLQL8KgMlWxAnEDcPb39gsPUCqJi4nHwiSFI%2BCjgausgvX0CQ8PB%2BCgp4aJQMTsSekH5U2kH3YYax5vAtems2%2BfiupJmN%2BtGmiZgRcyPYhYTu0m4KAAIAeQALAFtMNhgAB09neAGsfv9ASCyODIQCLsMAKoBPyuT7IACy2FQmAArj5sLsALRwB6%2BPHPJKOUI3JKEzB%2BTCuAg%2BaplWZ%2BAAmHmJdkULk2IDYrgAns4icNcUhaUA</t>
+  </si>
+  <si>
+    <t>Find Capacitors: https://www.digikey.com/en/products/filter/ceramic-capacitors/60?s=N4IgjCBcoMxaBjKAzAhgGwM4FMA0IB7KAbXBgBYAGEfAJgFZK4BdfABwBcoQBlDgJwCWAOwDmIAL74w5eCCSQ0WPIRIgA7OXph6NcJQAcm2np0BOWuXWmz5A%2BVl0YR53toA2Su%2B173Z97RmplT2Bqb06oEQdLQ6lCZO6hTWdJ6U5O6%2BBs6yrCCc3HxCYpL4GXIKSjj4RJCk6gbxIHkFkLwCIuJSIH4VKBjVqnUgVGYwY3qj5GCZZZS2YNYtXG1FnaXgZgZB0PL9yjVq1MuFHSXdtOk7iPuDtaRgAAQArQBizewrIACqwoIcAHlkABZbCoTAAV342EkEgkQA</t>
+  </si>
+  <si>
+    <t>CGB3B1X7R1A105K055AC</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 10V X7R 0603</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/tdk-corporation/CGB3B1X7R1A105K055AC/3950464</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF3000V</t>
+  </si>
+  <si>
+    <t>RES SMD 300 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERJ-3EKF3000V/1746363</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/1660?gclid=CjwKCAjw7diEBhB-EiwAskVi1wsxFk2ESmfvA4HH4gpdanqoo0mtTID2t8IZiqMyw-9Umb1D-fXxrhoChQgQAvD_BwE</t>
+  </si>
+  <si>
+    <t>MicroSD Socket</t>
+  </si>
+  <si>
+    <t>Add tons of storage to your next project with this micro SD card socket. We use this part in all our designs and it works great with any microSD ('transflash') of any storage size. It's a surface-mount part and the pins are underneath so it needs a fine tip and paste or thin solder to get in there and solder, not for beginners! It is a push-push type: push the card in to insert, push again to spring it out.</t>
+  </si>
+  <si>
+    <t>PRODUCT ID: 1660</t>
+  </si>
+  <si>
+    <t>XT30 Connector (Male)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://www.racedayquads.com/products/xt30-connector-male-or-female?_pos=11&amp;_sid=ba0a2201c&amp;_ss=r</t>
+  </si>
+  <si>
+    <t>S7B-XH-A(LF)(SN)</t>
+  </si>
+  <si>
+    <t>CONN HEADER R/A 7POS 2.5MM</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/jst-sales-america-inc/S7B-XH-A-LF-SN/455-2240-ND/1651038</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/jst-sales-america-inc/B2B-XH-A-LF-SN/1651045</t>
+  </si>
+  <si>
+    <t>B2B-XH-A(LF)(SN)</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 2POS 2.5MM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Ariel"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Ariel"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Ariel"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,13 +218,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,39 +545,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C94F46-05EA-4C66-9DE9-87932AFAEECC}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="49.77734375" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="M1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.23</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{B765A4B1-9B56-431C-B776-AA36AA7DCC10}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{4F398462-51E0-4191-B062-BD15FE608CCA}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{03FCDB2D-A01B-419A-895B-F47A75FE4665}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{0554F23F-699B-4898-8E9B-4F774BB0C498}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{5ED98289-7DF2-4492-BA95-9955CFBD525E}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{96414592-8BDD-46C8-8FE5-D52DEA8B667A}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{37DF9201-C3E0-45ED-9F02-BFEEB485DF0F}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{D261FC4F-3132-4342-91F8-A4EDCF789D05}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Parts/Componet List.xlsx
+++ b/Parts/Componet List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/77b7aaadc6b9f2e9/Documents/GitHub/DBF/PCB-Shield-Design/Parts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="8_{67CA6F16-8642-40DE-87EA-04BBB26B3169}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{81BB9724-E349-4040-903F-EE6FE83EFFD7}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="8_{67CA6F16-8642-40DE-87EA-04BBB26B3169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64F09300-76B3-461D-A07B-7B20C7DCD80F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A63A2686-3B4E-457C-A8F5-34C06D046AA0}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A63A2686-3B4E-457C-A8F5-34C06D046AA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>Componet Name</t>
   </si>
@@ -151,6 +151,39 @@
   </si>
   <si>
     <t>CONN HEADER VERT 2POS 2.5MM</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/filter/led-indication-discrete/105?s=N4IgjCBcpgbFoDGUBmBDANgZwKYBoQB7KAbRAGYBOcgJkpAF0CAHAFyhAGVWAnASwB2AcxABfAuQDsCEMkjps%2BIqQoBWMGFUAOEBMqqaYegQAsNWgAYTjFu0hdegkeJCx60Waky4CxSGRMLamobEDYObn5hMQkjGTkFH2V-cBo3E3JdEFVKM1Us2CsLGgKaLS18glhDWGsCOC1JGhL68xNVStSDcngmMLsHKOcCVQz4r0VfFTAMi1Ve2wjHaJcjLXckCaS-MgtQ8PtIpxiQGmKdDwTvJR2KajByTL6DweOXAFoSy6heAFcblT5BgfeDfSB-AEpTIEErAgjvaxgxKQgLkIJA0QuL5kAAyAFEACJYUKg0B8AAmHHeYAsEEW9iyrAAnswcBw0FhkJigA</t>
+  </si>
+  <si>
+    <t>150080YS75000</t>
+  </si>
+  <si>
+    <t>150080RS75000</t>
+  </si>
+  <si>
+    <t>150080VS75000</t>
+  </si>
+  <si>
+    <t>LED GREEN CLEAR 0805 SMD</t>
+  </si>
+  <si>
+    <t>LED RED CLEAR 0805 SMD</t>
+  </si>
+  <si>
+    <t>LED YELLOW CLEAR 0805 SMD</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/150080YS75000/4489927</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/150080RS75000/4489918</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/150080VS75000/4489924</t>
   </si>
 </sst>
 </file>
@@ -545,20 +578,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C94F46-05EA-4C66-9DE9-87932AFAEECC}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="31.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -785,6 +818,74 @@
       </c>
       <c r="F11" s="6" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -797,8 +898,9 @@
     <hyperlink ref="F9" r:id="rId6" xr:uid="{96414592-8BDD-46C8-8FE5-D52DEA8B667A}"/>
     <hyperlink ref="F10" r:id="rId7" xr:uid="{37DF9201-C3E0-45ED-9F02-BFEEB485DF0F}"/>
     <hyperlink ref="F11" r:id="rId8" xr:uid="{D261FC4F-3132-4342-91F8-A4EDCF789D05}"/>
+    <hyperlink ref="B13" r:id="rId9" display="https://www.digikey.com/en/products/filter/led-indication-discrete/105?s=N4IgjCBcpgbFoDGUBmBDANgZwKYBoQB7KAbRAGYBOcgJkpAF0CAHAFyhAGVWAnASwB2AcxABfAuQDsCEMkjps%2BIqQoBWMGFUAOEBMqqaYegQAsNWgAYTjFu0hdegkeJCx60Waky4CxSGRMLamobEDYObn5hMQkjGTkFH2V-cBo3E3JdEFVKM1Us2CsLGgKaLS18glhDWGsCOC1JGhL68xNVStSDcngmMLsHKOcCVQz4r0VfFTAMi1Ve2wjHaJcjLXckCaS-MgtQ8PtIpxiQGmKdDwTvJR2KajByTL6DweOXAFoSy6heAFcblT5BgfeDfSB-AEpTIEErAgjvaxgxKQgLkIJA0QuL5kAAyAFEACJYUKg0B8AAmHHeYAsEEW9iyrAAnswcBw0FhkJigA" xr:uid="{44FC4638-5CD1-4A8C-A949-EA7F8FE3A34E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Parts/Componet List.xlsx
+++ b/Parts/Componet List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/77b7aaadc6b9f2e9/Documents/GitHub/DBF/PCB-Shield-Design/Parts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="8_{67CA6F16-8642-40DE-87EA-04BBB26B3169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64F09300-76B3-461D-A07B-7B20C7DCD80F}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="8_{67CA6F16-8642-40DE-87EA-04BBB26B3169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90CAD295-3E24-4C8D-B33C-9F76987A0E92}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A63A2686-3B4E-457C-A8F5-34C06D046AA0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A63A2686-3B4E-457C-A8F5-34C06D046AA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>Componet Name</t>
   </si>
@@ -153,9 +153,6 @@
     <t>CONN HEADER VERT 2POS 2.5MM</t>
   </si>
   <si>
-    <t>LEDs</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/filter/led-indication-discrete/105?s=N4IgjCBcpgbFoDGUBmBDANgZwKYBoQB7KAbRAGYBOcgJkpAF0CAHAFyhAGVWAnASwB2AcxABfAuQDsCEMkjps%2BIqQoBWMGFUAOEBMqqaYegQAsNWgAYTjFu0hdegkeJCx60Waky4CxSGRMLamobEDYObn5hMQkjGTkFH2V-cBo3E3JdEFVKM1Us2CsLGgKaLS18glhDWGsCOC1JGhL68xNVStSDcngmMLsHKOcCVQz4r0VfFTAMi1Ve2wjHaJcjLXckCaS-MgtQ8PtIpxiQGmKdDwTvJR2KajByTL6DweOXAFoSy6heAFcblT5BgfeDfSB-AEpTIEErAgjvaxgxKQgLkIJA0QuL5kAAyAFEACJYUKg0B8AAmHHeYAsEEW9iyrAAnswcBw0FhkJigA</t>
   </si>
   <si>
@@ -184,6 +181,21 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/150080VS75000/4489924</t>
+  </si>
+  <si>
+    <t>Buck Converter</t>
+  </si>
+  <si>
+    <t>LEDs w/ current limiting resistor</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF66R5V</t>
+  </si>
+  <si>
+    <t>RES SMD 66.5 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERJ-3EKF66R5V/196443?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IB7KAbXABYAGANjJAF18AHAFyhAGVmAnASwDsA5iAC%2B%2BAMzwQSSGix5CJcGDEQGIFm069BI-GCqTpsnPiKRSYgJwwyBtRsgdu-IaJAwKADgCshlBhMFcxAqKgA6bwACAHkACwBbTHomVkcAVT4eZmjkAFlsVEwAVy5sXRAAWghoKX85U0UwCno3Crga6W4i%2BTNSXzphN3bSUsweTGYCLhagA</t>
   </si>
 </sst>
 </file>
@@ -578,20 +590,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C94F46-05EA-4C66-9DE9-87932AFAEECC}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -619,36 +631,24 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -657,203 +657,206 @@
         <v>0.1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
         <v>0.1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3">
-        <v>2.23</v>
+        <v>0.1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>0.1</v>
+        <v>2.23</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>1.95</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>0.39</v>
+        <v>1.95</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>0.61</v>
+        <v>0.39</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
         <v>0.15</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>45</v>
@@ -864,16 +867,16 @@
       <c r="E15" s="3">
         <v>0.18</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>48</v>
+      <c r="F15" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>44</v>
@@ -884,23 +887,67 @@
       <c r="E16" s="3">
         <v>0.18</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>49</v>
+      <c r="F16" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{B765A4B1-9B56-431C-B776-AA36AA7DCC10}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{4F398462-51E0-4191-B062-BD15FE608CCA}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{03FCDB2D-A01B-419A-895B-F47A75FE4665}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{0554F23F-699B-4898-8E9B-4F774BB0C498}"/>
-    <hyperlink ref="F8" r:id="rId5" xr:uid="{5ED98289-7DF2-4492-BA95-9955CFBD525E}"/>
-    <hyperlink ref="F9" r:id="rId6" xr:uid="{96414592-8BDD-46C8-8FE5-D52DEA8B667A}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{37DF9201-C3E0-45ED-9F02-BFEEB485DF0F}"/>
-    <hyperlink ref="F11" r:id="rId8" xr:uid="{D261FC4F-3132-4342-91F8-A4EDCF789D05}"/>
-    <hyperlink ref="B13" r:id="rId9" display="https://www.digikey.com/en/products/filter/led-indication-discrete/105?s=N4IgjCBcpgbFoDGUBmBDANgZwKYBoQB7KAbRAGYBOcgJkpAF0CAHAFyhAGVWAnASwB2AcxABfAuQDsCEMkjps%2BIqQoBWMGFUAOEBMqqaYegQAsNWgAYTjFu0hdegkeJCx60Waky4CxSGRMLamobEDYObn5hMQkjGTkFH2V-cBo3E3JdEFVKM1Us2CsLGgKaLS18glhDWGsCOC1JGhL68xNVStSDcngmMLsHKOcCVQz4r0VfFTAMi1Ve2wjHaJcjLXckCaS-MgtQ8PtIpxiQGmKdDwTvJR2KajByTL6DweOXAFoSy6heAFcblT5BgfeDfSB-AEpTIEErAgjvaxgxKQgLkIJA0QuL5kAAyAFEACJYUKg0B8AAmHHeYAsEEW9iyrAAnswcBw0FhkJigA" xr:uid="{44FC4638-5CD1-4A8C-A949-EA7F8FE3A34E}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{B765A4B1-9B56-431C-B776-AA36AA7DCC10}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{4F398462-51E0-4191-B062-BD15FE608CCA}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{03FCDB2D-A01B-419A-895B-F47A75FE4665}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{0554F23F-699B-4898-8E9B-4F774BB0C498}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{5ED98289-7DF2-4492-BA95-9955CFBD525E}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{96414592-8BDD-46C8-8FE5-D52DEA8B667A}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{37DF9201-C3E0-45ED-9F02-BFEEB485DF0F}"/>
+    <hyperlink ref="F12" r:id="rId8" xr:uid="{D261FC4F-3132-4342-91F8-A4EDCF789D05}"/>
+    <hyperlink ref="B14" r:id="rId9" display="https://www.digikey.com/en/products/filter/led-indication-discrete/105?s=N4IgjCBcpgbFoDGUBmBDANgZwKYBoQB7KAbRAGYBOcgJkpAF0CAHAFyhAGVWAnASwB2AcxABfAuQDsCEMkjps%2BIqQoBWMGFUAOEBMqqaYegQAsNWgAYTjFu0hdegkeJCx60Waky4CxSGRMLamobEDYObn5hMQkjGTkFH2V-cBo3E3JdEFVKM1Us2CsLGgKaLS18glhDWGsCOC1JGhL68xNVStSDcngmMLsHKOcCVQz4r0VfFTAMi1Ve2wjHaJcjLXckCaS-MgtQ8PtIpxiQGmKdDwTvJR2KajByTL6DweOXAFoSy6heAFcblT5BgfeDfSB-AEpTIEErAgjvaxgxKQgLkIJA0QuL5kAAyAFEACJYUKg0B8AAmHHeYAsEEW9iyrAAnswcBw0FhkJigA" xr:uid="{44FC4638-5CD1-4A8C-A949-EA7F8FE3A34E}"/>
+    <hyperlink ref="F15" r:id="rId10" xr:uid="{B89EDDFA-62D1-4633-BB03-3DFE65703847}"/>
+    <hyperlink ref="F17" r:id="rId11" xr:uid="{B541E928-7FBD-4D9F-AEDC-2A9BD2DE3BF6}"/>
+    <hyperlink ref="F16" r:id="rId12" xr:uid="{18D6C197-3B30-4F0B-B7B3-BF24A72E7E1F}"/>
+    <hyperlink ref="F18" r:id="rId13" display="https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERJ-3EKF66R5V/196443?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IB7KAbXABYAGANjJAF18AHAFyhAGVmAnASwDsA5iAC%2B%2BAMzwQSSGix5CJcGDEQGIFm069BI-GCqTpsnPiKRSYgJwwyBtRsgdu-IaJAwKADgCshlBhMFcxAqKgA6bwACAHkACwBbTHomVkcAVT4eZmjkAFlsVEwAVy5sXRAAWghoKX85U0UwCno3Crga6W4i%2BTNSXzphN3bSUsweTGYCLhagA" xr:uid="{FF94E5FA-2EC5-4E2F-95E9-82212E6E6F23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Parts/Componet List.xlsx
+++ b/Parts/Componet List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/77b7aaadc6b9f2e9/Documents/GitHub/DBF/PCB-Shield-Design/Parts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="8_{67CA6F16-8642-40DE-87EA-04BBB26B3169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90CAD295-3E24-4C8D-B33C-9F76987A0E92}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="8_{67CA6F16-8642-40DE-87EA-04BBB26B3169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CD49381-35F9-45B4-8AF7-01C1A89F6252}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A63A2686-3B4E-457C-A8F5-34C06D046AA0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>Componet Name</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/150080VS75000/4489924</t>
-  </si>
-  <si>
-    <t>Buck Converter</t>
   </si>
   <si>
     <t>LEDs w/ current limiting resistor</t>
@@ -590,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C94F46-05EA-4C66-9DE9-87932AFAEECC}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -631,24 +628,36 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="M2" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -657,209 +666,206 @@
         <v>0.1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
         <v>0.1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1</v>
+        <v>2.23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>2.23</v>
+        <v>0.1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>0.2</v>
+        <v>1.95</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>1.95</v>
+        <v>0.39</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="3">
-        <v>0.61</v>
+        <v>0.15</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="F12" s="6" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -868,18 +874,18 @@
         <v>0.18</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -888,64 +894,44 @@
         <v>0.18</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{B765A4B1-9B56-431C-B776-AA36AA7DCC10}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{4F398462-51E0-4191-B062-BD15FE608CCA}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{03FCDB2D-A01B-419A-895B-F47A75FE4665}"/>
-    <hyperlink ref="F8" r:id="rId4" xr:uid="{0554F23F-699B-4898-8E9B-4F774BB0C498}"/>
-    <hyperlink ref="F9" r:id="rId5" xr:uid="{5ED98289-7DF2-4492-BA95-9955CFBD525E}"/>
-    <hyperlink ref="F10" r:id="rId6" xr:uid="{96414592-8BDD-46C8-8FE5-D52DEA8B667A}"/>
-    <hyperlink ref="F11" r:id="rId7" xr:uid="{37DF9201-C3E0-45ED-9F02-BFEEB485DF0F}"/>
-    <hyperlink ref="F12" r:id="rId8" xr:uid="{D261FC4F-3132-4342-91F8-A4EDCF789D05}"/>
-    <hyperlink ref="B14" r:id="rId9" display="https://www.digikey.com/en/products/filter/led-indication-discrete/105?s=N4IgjCBcpgbFoDGUBmBDANgZwKYBoQB7KAbRAGYBOcgJkpAF0CAHAFyhAGVWAnASwB2AcxABfAuQDsCEMkjps%2BIqQoBWMGFUAOEBMqqaYegQAsNWgAYTjFu0hdegkeJCx60Waky4CxSGRMLamobEDYObn5hMQkjGTkFH2V-cBo3E3JdEFVKM1Us2CsLGgKaLS18glhDWGsCOC1JGhL68xNVStSDcngmMLsHKOcCVQz4r0VfFTAMi1Ve2wjHaJcjLXckCaS-MgtQ8PtIpxiQGmKdDwTvJR2KajByTL6DweOXAFoSy6heAFcblT5BgfeDfSB-AEpTIEErAgjvaxgxKQgLkIJA0QuL5kAAyAFEACJYUKg0B8AAmHHeYAsEEW9iyrAAnswcBw0FhkJigA" xr:uid="{44FC4638-5CD1-4A8C-A949-EA7F8FE3A34E}"/>
-    <hyperlink ref="F15" r:id="rId10" xr:uid="{B89EDDFA-62D1-4633-BB03-3DFE65703847}"/>
-    <hyperlink ref="F17" r:id="rId11" xr:uid="{B541E928-7FBD-4D9F-AEDC-2A9BD2DE3BF6}"/>
-    <hyperlink ref="F16" r:id="rId12" xr:uid="{18D6C197-3B30-4F0B-B7B3-BF24A72E7E1F}"/>
-    <hyperlink ref="F18" r:id="rId13" display="https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERJ-3EKF66R5V/196443?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IB7KAbXABYAGANjJAF18AHAFyhAGVmAnASwDsA5iAC%2B%2BAMzwQSSGix5CJcGDEQGIFm069BI-GCqTpsnPiKRSYgJwwyBtRsgdu-IaJAwKADgCshlBhMFcxAqKgA6bwACAHkACwBbTHomVkcAVT4eZmjkAFlsVEwAVy5sXRAAWghoKX85U0UwCno3Crga6W4i%2BTNSXzphN3bSUsweTGYCLhagA" xr:uid="{FF94E5FA-2EC5-4E2F-95E9-82212E6E6F23}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{B765A4B1-9B56-431C-B776-AA36AA7DCC10}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{4F398462-51E0-4191-B062-BD15FE608CCA}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{03FCDB2D-A01B-419A-895B-F47A75FE4665}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{0554F23F-699B-4898-8E9B-4F774BB0C498}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{5ED98289-7DF2-4492-BA95-9955CFBD525E}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{96414592-8BDD-46C8-8FE5-D52DEA8B667A}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{37DF9201-C3E0-45ED-9F02-BFEEB485DF0F}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{D261FC4F-3132-4342-91F8-A4EDCF789D05}"/>
+    <hyperlink ref="B13" r:id="rId9" display="https://www.digikey.com/en/products/filter/led-indication-discrete/105?s=N4IgjCBcpgbFoDGUBmBDANgZwKYBoQB7KAbRAGYBOcgJkpAF0CAHAFyhAGVWAnASwB2AcxABfAuQDsCEMkjps%2BIqQoBWMGFUAOEBMqqaYegQAsNWgAYTjFu0hdegkeJCx60Waky4CxSGRMLamobEDYObn5hMQkjGTkFH2V-cBo3E3JdEFVKM1Us2CsLGgKaLS18glhDWGsCOC1JGhL68xNVStSDcngmMLsHKOcCVQz4r0VfFTAMi1Ve2wjHaJcjLXckCaS-MgtQ8PtIpxiQGmKdDwTvJR2KajByTL6DweOXAFoSy6heAFcblT5BgfeDfSB-AEpTIEErAgjvaxgxKQgLkIJA0QuL5kAAyAFEACJYUKg0B8AAmHHeYAsEEW9iyrAAnswcBw0FhkJigA" xr:uid="{44FC4638-5CD1-4A8C-A949-EA7F8FE3A34E}"/>
+    <hyperlink ref="F14" r:id="rId10" xr:uid="{B89EDDFA-62D1-4633-BB03-3DFE65703847}"/>
+    <hyperlink ref="F16" r:id="rId11" xr:uid="{B541E928-7FBD-4D9F-AEDC-2A9BD2DE3BF6}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{18D6C197-3B30-4F0B-B7B3-BF24A72E7E1F}"/>
+    <hyperlink ref="F17" r:id="rId13" display="https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERJ-3EKF66R5V/196443?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IB7KAbXABYAGANjJAF18AHAFyhAGVmAnASwDsA5iAC%2B%2BAMzwQSSGix5CJcGDEQGIFm069BI-GCqTpsnPiKRSYgJwwyBtRsgdu-IaJAwKADgCshlBhMFcxAqKgA6bwACAHkACwBbTHomVkcAVT4eZmjkAFlsVEwAVy5sXRAAWghoKX85U0UwCno3Crga6W4i%2BTNSXzphN3bSUsweTGYCLhagA" xr:uid="{FF94E5FA-2EC5-4E2F-95E9-82212E6E6F23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>

--- a/Parts/Componet List.xlsx
+++ b/Parts/Componet List.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/77b7aaadc6b9f2e9/Documents/GitHub/DBF/PCB-Shield-Design/Parts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\GitHub\DBF\PCB-Shield-Design\Parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="8_{67CA6F16-8642-40DE-87EA-04BBB26B3169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CD49381-35F9-45B4-8AF7-01C1A89F6252}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11536BF7-30BB-40E7-844D-7C4B6D681F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A63A2686-3B4E-457C-A8F5-34C06D046AA0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A63A2686-3B4E-457C-A8F5-34C06D046AA0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PCB_Shield_v2" sheetId="1" r:id="rId1"/>
+    <sheet name="PCB_Shield_v3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>Componet Name</t>
   </si>
@@ -193,6 +194,63 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/ERJ-3EKF66R5V/196443?s=N4IgjCBcoExaBjKAzAhgGwM4FMA0IB7KAbXABYAGANjJAF18AHAFyhAGVmAnASwDsA5iAC%2B%2BAMzwQSSGix5CJcGDEQGIFm069BI-GCqTpsnPiKRSYgJwwyBtRsgdu-IaJAwKADgCshlBhMFcxAqKgA6bwACAHkACwBbTHomVkcAVT4eZmjkAFlsVEwAVy5sXRAAWghoKX85U0UwCno3Crga6W4i%2BTNSXzphN3bSUsweTGYCLhagA</t>
+  </si>
+  <si>
+    <t>Part #</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qty </t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>In Altium</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>TSR 1-2450</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/traco-power/TSR-1-2450/9383780</t>
+  </si>
+  <si>
+    <t>5V 1A Output</t>
+  </si>
+  <si>
+    <t>Buck Converter</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Need to Order (Y/N)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>https://www.tracopower.com/sites/default/files/products/datasheets/tsr1_datasheet.pdf</t>
+  </si>
+  <si>
+    <t>XT30 right angle connector</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Amass-XT30PW-Upgrade-Connectors-Battery/dp/B099F2PXYN/ref=sr_1_1?crid=1HAEZSSILG0HP&amp;keywords=XT30+right+angle+connector&amp;qid=1643672653&amp;sprefix=xt30+right+angle+connector%2Caps%2C116&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>XT30</t>
+  </si>
+  <si>
+    <t>Avionics Battery Connector</t>
   </si>
 </sst>
 </file>
@@ -589,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C94F46-05EA-4C66-9DE9-87932AFAEECC}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -936,4 +994,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC095FF6-77C3-4985-9DFF-126D085E00A0}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>